--- a/data/trans_orig/P22S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22S1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{428E79C8-876D-432D-BCA8-9920881C4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6561B1B7-8735-4615-9ABB-75BC9AD5F54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{540378D8-77A4-418E-B333-BEB3C339A1B7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DDF5103-8CCD-4540-A33C-88B703E6572F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="431">
   <si>
     <t>Población según tipo de seguro sanitario en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -92,1243 +92,1246 @@
     <t>Otros</t>
   </si>
   <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>No tengo seguro médico</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Seguro Médico concertado por su empresa</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>Seguro Médico concertado individualmente (Sanitas, colegios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a un</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Seguridad social</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>No tengo seguro médico</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>Seguro Médico concertado por su empresa</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>Seguro Médico concertado individualmente (Sanitas, colegios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a un</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>Seguridad social</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
   </si>
 </sst>
 </file>
@@ -1740,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B6DEA3-D67F-4779-B28C-97B93C9A2CB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DD7A92-6DF3-4DF7-BBB0-9EC11DCE4FB7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2053,13 +2056,13 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2068,13 +2071,13 @@
         <v>2791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2083,13 +2086,13 @@
         <v>9060</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2098,7 +2101,7 @@
         <v>11851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>37</v>
@@ -2134,13 +2137,13 @@
         <v>4330</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -2149,10 +2152,10 @@
         <v>6361</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>44</v>
@@ -2173,10 +2176,10 @@
         <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2185,13 +2188,13 @@
         <v>26670</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -2200,19 +2203,19 @@
         <v>38706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7">
         <v>1013</v>
@@ -2221,13 +2224,13 @@
         <v>1006644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>1248</v>
@@ -2236,13 +2239,13 @@
         <v>1270732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>2261</v>
@@ -2251,13 +2254,13 @@
         <v>2277377</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2275,13 @@
         <v>1028880</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1290</v>
@@ -2287,13 +2290,13 @@
         <v>1314265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>2325</v>
@@ -2302,18 +2305,18 @@
         <v>2343145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2331,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2346,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2361,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2379,13 @@
         <v>1593</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2397,7 +2400,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2406,13 +2409,13 @@
         <v>3108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,7 +2436,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2448,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2457,13 +2460,13 @@
         <v>2822</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2481,13 @@
         <v>4611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2499,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2508,19 +2511,19 @@
         <v>4611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -2535,7 +2538,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2544,13 +2547,13 @@
         <v>15121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2559,13 +2562,13 @@
         <v>16985</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,13 +2583,13 @@
         <v>15602</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2595,13 +2598,13 @@
         <v>8100</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2610,13 +2613,13 @@
         <v>23702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2634,13 @@
         <v>28789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -2646,13 +2649,13 @@
         <v>39446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2661,19 +2664,19 @@
         <v>68235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7">
         <v>1594</v>
@@ -2682,13 +2685,13 @@
         <v>1635627</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>1492</v>
@@ -2697,13 +2700,13 @@
         <v>1521251</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>3086</v>
@@ -2712,13 +2715,13 @@
         <v>3156878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2736,13 @@
         <v>1689847</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7">
         <v>1553</v>
@@ -2748,13 +2751,13 @@
         <v>1586493</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>3199</v>
@@ -2763,18 +2766,18 @@
         <v>3276340</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2792,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2837,13 +2840,13 @@
         <v>1457</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2852,13 +2855,13 @@
         <v>1583</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2867,13 +2870,13 @@
         <v>3039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,7 +2897,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2939,13 +2942,13 @@
         <v>3931</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2969,19 +2972,19 @@
         <v>3931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>8</v>
@@ -3059,10 +3062,10 @@
         <v>127</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M27" s="7">
         <v>25</v>
@@ -3071,13 +3074,13 @@
         <v>25469</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3095,13 @@
         <v>43749</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -3107,13 +3110,13 @@
         <v>25065</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -3122,19 +3125,19 @@
         <v>68814</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>458</v>
@@ -3143,13 +3146,13 @@
         <v>480196</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>405</v>
@@ -3158,13 +3161,13 @@
         <v>426545</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
@@ -3173,13 +3176,13 @@
         <v>906741</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3197,13 @@
         <v>551408</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7">
         <v>452</v>
@@ -3209,13 +3212,13 @@
         <v>476412</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M30" s="7">
         <v>979</v>
@@ -3224,13 +3227,13 @@
         <v>1027820</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3256,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3268,7 +3271,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3283,7 +3286,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3301,13 @@
         <v>3049</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3313,13 +3316,13 @@
         <v>5639</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3328,13 +3331,13 @@
         <v>8689</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,10 +3355,10 @@
         <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3364,13 +3367,13 @@
         <v>1991</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -3379,13 +3382,13 @@
         <v>8090</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3403,13 @@
         <v>9583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3421,7 +3424,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3430,19 +3433,19 @@
         <v>9583</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="7">
         <v>13</v>
@@ -3451,13 +3454,13 @@
         <v>13213</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -3466,13 +3469,13 @@
         <v>35449</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="M35" s="7">
         <v>45</v>
@@ -3481,13 +3484,13 @@
         <v>48662</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3505,13 @@
         <v>31149</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3517,13 +3520,13 @@
         <v>24382</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -3532,13 +3535,13 @@
         <v>55531</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3556,13 @@
         <v>84574</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H37" s="7">
         <v>88</v>
@@ -3568,13 +3571,13 @@
         <v>91181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="M37" s="7">
         <v>172</v>
@@ -3583,19 +3586,19 @@
         <v>175755</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7">
         <v>3065</v>
@@ -3604,13 +3607,13 @@
         <v>3122468</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H38" s="7">
         <v>3145</v>
@@ -3619,13 +3622,13 @@
         <v>3218528</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M38" s="7">
         <v>6210</v>
@@ -3634,13 +3637,13 @@
         <v>6340995</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3658,13 @@
         <v>3270135</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
         <v>3295</v>
@@ -3670,13 +3673,13 @@
         <v>3377170</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
         <v>6503</v>
@@ -3685,18 +3688,18 @@
         <v>6647304</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3715,7 +3718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2789AC68-2630-480B-92CF-8C970064266B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD7D717-4340-4184-BF81-79BB7C66207D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3732,7 +3735,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3845,7 +3848,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3875,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3899,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3926,7 +3929,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3944,13 @@
         <v>1268</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3971,13 +3974,13 @@
         <v>1268</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +4001,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4028,13 +4031,13 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4043,13 +4046,13 @@
         <v>3021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4058,13 +4061,13 @@
         <v>4083</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4073,13 +4076,13 @@
         <v>7104</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4097,13 @@
         <v>3916</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4109,13 +4112,13 @@
         <v>3845</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -4124,13 +4127,13 @@
         <v>7760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4148,13 @@
         <v>5849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4160,13 +4163,13 @@
         <v>12092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4175,19 +4178,19 @@
         <v>17941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7">
         <v>894</v>
@@ -4196,13 +4199,13 @@
         <v>959559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>1229</v>
@@ -4211,13 +4214,13 @@
         <v>1317776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>2123</v>
@@ -4226,13 +4229,13 @@
         <v>2277335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4250,13 @@
         <v>974643</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -4262,13 +4265,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>2155</v>
@@ -4277,18 +4280,18 @@
         <v>2312440</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4321,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4336,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,10 +4372,10 @@
         <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4381,13 +4384,13 @@
         <v>3305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4405,13 @@
         <v>1233</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4423,7 +4426,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4438,7 +4441,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4456,13 @@
         <v>5904</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4474,7 +4477,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4483,19 +4486,19 @@
         <v>7891</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>8</v>
@@ -4504,13 +4507,13 @@
         <v>10165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4519,13 +4522,13 @@
         <v>15709</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4534,13 +4537,13 @@
         <v>25874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4558,13 @@
         <v>26746</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4570,13 +4573,13 @@
         <v>20907</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -4585,13 +4588,13 @@
         <v>47653</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>220</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4609,13 @@
         <v>36781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4621,13 +4624,13 @@
         <v>21795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -4636,19 +4639,19 @@
         <v>58577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7">
         <v>1786</v>
@@ -4657,13 +4660,13 @@
         <v>1882146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>1580</v>
@@ -4672,28 +4675,28 @@
         <v>1692905</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>3366</v>
       </c>
       <c r="N20" s="7">
-        <v>3575050</v>
+        <v>3575051</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4711,13 @@
         <v>1962976</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7">
         <v>1635</v>
@@ -4723,33 +4726,33 @@
         <v>1757803</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
       </c>
       <c r="N21" s="7">
-        <v>3720778</v>
+        <v>3720779</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4767,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4782,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4797,7 +4800,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,7 +4821,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4827,13 +4830,13 @@
         <v>2864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -4842,13 +4845,13 @@
         <v>2864</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4866,13 @@
         <v>1211</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4884,7 +4887,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -4893,13 +4896,13 @@
         <v>1211</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4917,13 @@
         <v>5589</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -4929,13 +4932,13 @@
         <v>3128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4944,19 +4947,19 @@
         <v>8717</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>7</v>
@@ -4965,13 +4968,13 @@
         <v>8462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -4980,13 +4983,13 @@
         <v>4763</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4995,13 +4998,13 @@
         <v>13225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5019,13 @@
         <v>16360</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -5031,13 +5034,13 @@
         <v>18044</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -5046,13 +5049,13 @@
         <v>34405</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5070,13 @@
         <v>35165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5082,13 +5085,13 @@
         <v>19065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -5097,19 +5100,19 @@
         <v>54230</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>383</v>
@@ -5118,13 +5121,13 @@
         <v>414394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="H29" s="7">
         <v>372</v>
@@ -5133,13 +5136,13 @@
         <v>410767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M29" s="7">
         <v>755</v>
@@ -5148,13 +5151,13 @@
         <v>825161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5172,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -5184,13 +5187,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -5199,13 +5202,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5243,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5258,7 +5261,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -5288,13 +5291,13 @@
         <v>6168</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -5303,13 +5306,13 @@
         <v>6168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5333,7 @@
         <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -5339,13 +5342,13 @@
         <v>1196</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -5357,10 +5360,10 @@
         <v>24</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,13 +5378,13 @@
         <v>12524</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5390,13 +5393,13 @@
         <v>5115</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -5405,19 +5408,19 @@
         <v>17639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="7">
         <v>18</v>
@@ -5426,13 +5429,13 @@
         <v>21648</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -5441,13 +5444,13 @@
         <v>24555</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="M35" s="7">
         <v>39</v>
@@ -5456,13 +5459,13 @@
         <v>46203</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,13 +5480,13 @@
         <v>47022</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>277</v>
+        <v>87</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -5492,13 +5495,13 @@
         <v>42796</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -5507,13 +5510,13 @@
         <v>89818</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>275</v>
+        <v>156</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5531,13 @@
         <v>77795</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -5543,34 +5546,34 @@
         <v>52953</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="M37" s="7">
         <v>116</v>
       </c>
       <c r="N37" s="7">
-        <v>130747</v>
+        <v>130748</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7">
         <v>3063</v>
@@ -5579,13 +5582,13 @@
         <v>3256098</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="H38" s="7">
         <v>3181</v>
@@ -5594,28 +5597,28 @@
         <v>3421448</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M38" s="7">
         <v>6244</v>
       </c>
       <c r="N38" s="7">
-        <v>6677546</v>
+        <v>6677547</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5633,13 @@
         <v>3418800</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
         <v>3294</v>
@@ -5645,33 +5648,33 @@
         <v>3554230</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
         <v>6495</v>
       </c>
       <c r="N39" s="7">
-        <v>6973030</v>
+        <v>6973031</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5690,7 +5693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09248ED8-31E7-4BAF-B879-82E676EF8252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6978ECC5-B477-4011-AFAC-09AE067B3C0C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5707,7 +5710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5820,7 +5823,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5850,7 +5853,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5901,7 +5904,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,7 +5925,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5952,7 +5955,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,7 +5976,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5982,13 +5985,13 @@
         <v>884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5997,19 +6000,19 @@
         <v>884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6024,7 +6027,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6039,7 +6042,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -6048,13 +6051,13 @@
         <v>2757</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,7 +6078,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6084,13 +6087,13 @@
         <v>4559</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -6099,13 +6102,13 @@
         <v>6660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6123,13 @@
         <v>6977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6135,13 +6138,13 @@
         <v>2105</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6150,19 +6153,19 @@
         <v>9082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7">
         <v>752</v>
@@ -6171,13 +6174,13 @@
         <v>744101</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="H11" s="7">
         <v>880</v>
@@ -6186,13 +6189,13 @@
         <v>980406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
         <v>1632</v>
@@ -6201,13 +6204,13 @@
         <v>1724507</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6225,13 @@
         <v>753179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>889</v>
@@ -6237,13 +6240,13 @@
         <v>990712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>1650</v>
@@ -6252,18 +6255,18 @@
         <v>1743891</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6311,7 +6314,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6329,13 @@
         <v>951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6356,13 +6359,13 @@
         <v>951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6380,13 @@
         <v>4330</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -6392,13 +6395,13 @@
         <v>3144</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -6407,13 +6410,13 @@
         <v>7474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>272</v>
+        <v>153</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6431,13 @@
         <v>1784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6443,13 +6446,13 @@
         <v>902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6464,13 +6467,13 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -6479,13 +6482,13 @@
         <v>13583</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6494,13 +6497,13 @@
         <v>13951</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -6509,13 +6512,13 @@
         <v>27534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6533,13 @@
         <v>24155</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
         <v>17</v>
@@ -6545,13 +6548,13 @@
         <v>20202</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -6560,13 +6563,13 @@
         <v>44357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>287</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6584,13 @@
         <v>32882</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6596,13 +6599,13 @@
         <v>13732</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -6611,19 +6614,19 @@
         <v>46614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7">
         <v>1879</v>
@@ -6632,13 +6635,13 @@
         <v>1995918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H20" s="7">
         <v>1859</v>
@@ -6647,13 +6650,13 @@
         <v>1934512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>3738</v>
@@ -6662,13 +6665,13 @@
         <v>3930430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6686,13 @@
         <v>2073604</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7">
         <v>1906</v>
@@ -6698,13 +6701,13 @@
         <v>1986443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>3856</v>
@@ -6713,18 +6716,18 @@
         <v>4060047</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6742,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6757,7 +6760,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6793,7 +6796,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6808,7 +6811,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6838,13 +6841,13 @@
         <v>2438</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6859,7 +6862,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6874,7 +6877,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6889,13 +6892,13 @@
         <v>2472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6904,13 +6907,13 @@
         <v>2170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6925,13 +6928,13 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>18</v>
@@ -6940,13 +6943,13 @@
         <v>20521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -6955,13 +6958,13 @@
         <v>19082</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6970,13 +6973,13 @@
         <v>39603</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>325</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,13 +6994,13 @@
         <v>30027</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -7006,13 +7009,13 @@
         <v>23056</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M27" s="7">
         <v>49</v>
@@ -7021,13 +7024,13 @@
         <v>53083</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,13 +7045,13 @@
         <v>24956</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -7057,13 +7060,13 @@
         <v>18707</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>338</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -7072,19 +7075,19 @@
         <v>43664</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>428</v>
@@ -7093,13 +7096,13 @@
         <v>465509</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H29" s="7">
         <v>465</v>
@@ -7108,13 +7111,13 @@
         <v>486125</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M29" s="7">
         <v>893</v>
@@ -7123,13 +7126,13 @@
         <v>951634</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7147,13 @@
         <v>545923</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -7159,13 +7162,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M30" s="7">
         <v>1026</v>
@@ -7174,13 +7177,13 @@
         <v>1095063</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,7 +7206,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7218,7 +7221,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7233,7 +7236,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7251,13 @@
         <v>951</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7269,7 +7272,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7278,7 +7281,7 @@
         <v>951</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
@@ -7305,7 +7308,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -7314,13 +7317,13 @@
         <v>3144</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -7329,13 +7332,13 @@
         <v>9912</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7350,13 +7353,13 @@
         <v>4256</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>273</v>
+        <v>114</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7368,10 +7371,10 @@
         <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7380,19 +7383,19 @@
         <v>8212</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="7">
         <v>31</v>
@@ -7401,13 +7404,13 @@
         <v>34104</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -7416,13 +7419,13 @@
         <v>35790</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>128</v>
+        <v>354</v>
       </c>
       <c r="M35" s="7">
         <v>65</v>
@@ -7431,13 +7434,13 @@
         <v>69894</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>295</v>
+        <v>353</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>198</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7455,13 @@
         <v>56283</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>357</v>
+        <v>304</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -7467,13 +7470,13 @@
         <v>47817</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>114</v>
+        <v>356</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="M36" s="7">
         <v>94</v>
@@ -7482,10 +7485,10 @@
         <v>104100</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>227</v>
+        <v>358</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>359</v>
@@ -7506,10 +7509,10 @@
         <v>360</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>361</v>
+        <v>110</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -7518,13 +7521,13 @@
         <v>34544</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>36</v>
+        <v>361</v>
       </c>
       <c r="M37" s="7">
         <v>94</v>
@@ -7533,19 +7536,19 @@
         <v>99360</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7">
         <v>3059</v>
@@ -7569,13 +7572,13 @@
         <v>3401045</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M38" s="7">
         <v>6263</v>
@@ -7584,13 +7587,13 @@
         <v>6606571</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7608,13 @@
         <v>3372705</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
         <v>3321</v>
@@ -7620,13 +7623,13 @@
         <v>3526296</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
         <v>6532</v>
@@ -7635,18 +7638,18 @@
         <v>6899000</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7665,7 +7668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB6DD04-CC6A-4D59-92A2-F5D897A0A319}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D31150C-7050-4B12-AFC9-C2CF64E20301}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7810,7 +7813,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7825,7 +7828,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,7 +7858,7 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -7870,13 +7873,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7891,13 +7894,13 @@
         <v>1875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>371</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7906,13 +7909,13 @@
         <v>1348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -7921,13 +7924,13 @@
         <v>3223</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,13 +7960,13 @@
         <v>431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -7972,19 +7975,19 @@
         <v>431</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>272</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -7993,13 +7996,13 @@
         <v>2787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -8008,13 +8011,13 @@
         <v>1206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -8023,13 +8026,13 @@
         <v>3993</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8047,13 @@
         <v>488</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -8059,13 +8062,13 @@
         <v>4160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -8074,13 +8077,13 @@
         <v>4648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8110,13 +8113,13 @@
         <v>1070</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8131,13 +8134,13 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7">
         <v>685</v>
@@ -8146,13 +8149,13 @@
         <v>536483</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>1412</v>
@@ -8161,13 +8164,13 @@
         <v>824817</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>2097</v>
@@ -8176,13 +8179,13 @@
         <v>1361299</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8200,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>1426</v>
@@ -8212,13 +8215,13 @@
         <v>833191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
         <v>2117</v>
@@ -8227,18 +8230,18 @@
         <v>1374824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -8316,13 +8319,13 @@
         <v>3644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>38</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -8337,7 +8340,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,13 +8355,13 @@
         <v>1362</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -8367,13 +8370,13 @@
         <v>5732</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -8382,13 +8385,13 @@
         <v>7094</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,13 +8406,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -8418,13 +8421,13 @@
         <v>3025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -8433,19 +8436,19 @@
         <v>4087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -8454,13 +8457,13 @@
         <v>6667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -8469,13 +8472,13 @@
         <v>6878</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -8484,13 +8487,13 @@
         <v>13545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8505,13 +8508,13 @@
         <v>23965</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -8520,13 +8523,13 @@
         <v>15313</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>383</v>
+        <v>112</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -8535,13 +8538,13 @@
         <v>39278</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>274</v>
+        <v>225</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8556,13 +8559,13 @@
         <v>37121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -8571,13 +8574,13 @@
         <v>11900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -8586,19 +8589,19 @@
         <v>49020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="7">
         <v>1932</v>
@@ -8607,13 +8610,13 @@
         <v>2091845</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H20" s="7">
         <v>2855</v>
@@ -8622,13 +8625,13 @@
         <v>2202869</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>4787</v>
@@ -8637,13 +8640,13 @@
         <v>4294714</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8658,13 +8661,13 @@
         <v>2162022</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H21" s="7">
         <v>2920</v>
@@ -8673,13 +8676,13 @@
         <v>2249361</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" s="7">
         <v>4912</v>
@@ -8688,18 +8691,18 @@
         <v>4411383</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8885,7 +8888,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8894,19 +8897,19 @@
         <v>735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -8915,13 +8918,13 @@
         <v>5118</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>19</v>
+        <v>371</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -8930,13 +8933,13 @@
         <v>13524</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -8945,13 +8948,13 @@
         <v>18642</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +8969,13 @@
         <v>26878</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>170</v>
+        <v>397</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -8981,10 +8984,10 @@
         <v>25356</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>399</v>
+        <v>93</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>400</v>
@@ -9020,10 +9023,10 @@
         <v>404</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>405</v>
+        <v>330</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -9032,13 +9035,13 @@
         <v>22590</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -9047,10 +9050,10 @@
         <v>41404</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>410</v>
@@ -9059,7 +9062,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="7">
         <v>618</v>
@@ -9119,13 +9122,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -9134,13 +9137,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -9149,13 +9152,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9178,7 +9181,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9208,7 +9211,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9229,7 +9232,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -9244,7 +9247,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9253,13 +9256,13 @@
         <v>3803</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9277,10 +9280,10 @@
         <v>22</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -9292,10 +9295,10 @@
         <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>71</v>
+        <v>371</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -9304,13 +9307,13 @@
         <v>10317</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,13 +9328,13 @@
         <v>1062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>296</v>
+        <v>13</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -9343,10 +9346,10 @@
         <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9358,7 +9361,7 @@
         <v>24</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>14</v>
@@ -9367,7 +9370,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C35" s="7">
         <v>19</v>
@@ -9376,13 +9379,13 @@
         <v>14572</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -9391,13 +9394,13 @@
         <v>21608</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>298</v>
+        <v>19</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="M35" s="7">
         <v>52</v>
@@ -9406,13 +9409,13 @@
         <v>36180</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9427,13 +9430,13 @@
         <v>51332</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>166</v>
+        <v>272</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>396</v>
       </c>
       <c r="H36" s="7">
         <v>60</v>
@@ -9442,13 +9445,13 @@
         <v>44829</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>396</v>
+        <v>187</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>111</v>
@@ -9457,10 +9460,10 @@
         <v>96161</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>420</v>
@@ -9478,13 +9481,13 @@
         <v>55934</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>279</v>
+        <v>111</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -9493,13 +9496,13 @@
         <v>35560</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="M37" s="7">
         <v>110</v>
@@ -9508,19 +9511,19 @@
         <v>91494</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>160</v>
+        <v>423</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>422</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="7">
         <v>3235</v>
@@ -9529,13 +9532,13 @@
         <v>3250557</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H38" s="7">
         <v>5183</v>
@@ -9544,28 +9547,28 @@
         <v>3679368</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M38" s="7">
         <v>8418</v>
       </c>
       <c r="N38" s="7">
-        <v>6929924</v>
+        <v>6929925</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>429</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9577,16 +9580,16 @@
         <v>3364</v>
       </c>
       <c r="D39" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H39" s="7">
         <v>5350</v>
@@ -9595,33 +9598,33 @@
         <v>3796438</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M39" s="7">
         <v>8714</v>
       </c>
       <c r="N39" s="7">
-        <v>7173132</v>
+        <v>7173133</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P22S1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P22S1-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6561B1B7-8735-4615-9ABB-75BC9AD5F54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58303F67-1F12-423F-9FC5-0314353EF3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DDF5103-8CCD-4540-A33C-88B703E6572F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7036C87A-3EA9-4766-986D-71A2682845A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="432">
   <si>
     <t>Población según tipo de seguro sanitario en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -92,1246 +92,1249 @@
     <t>Otros</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>No tengo seguro médico</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Seguro Médico concertado por su empresa</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Seguro Médico concertado individualmente (Sanitas, colegios</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a un</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>Seguridad social</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,11%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>No tengo seguro médico</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>Seguro Médico concertado por su empresa</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>Seguro Médico concertado individualmente (Sanitas, colegios</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a un</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>Mutualidades del Estado (Muface, Isfas, etc.) Acogidos a la</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>Seguridad social</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2012 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>1,64%</t>
   </si>
   <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DD7A92-6DF3-4DF7-BBB0-9EC11DCE4FB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954E9F53-13CA-4863-A1AF-BB9FE33572B2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2002,16 +2005,16 @@
         <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -2026,7 +2029,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2050,19 +2053,19 @@
         <v>1041</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2071,13 +2074,13 @@
         <v>2791</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -2086,13 +2089,13 @@
         <v>9060</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2101,7 +2104,7 @@
         <v>11851</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>37</v>
@@ -2143,7 +2146,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -2152,19 +2155,19 @@
         <v>6361</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>13</v>
@@ -2173,13 +2176,13 @@
         <v>12036</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2188,13 +2191,13 @@
         <v>26670</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -2203,19 +2206,19 @@
         <v>38706</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7">
         <v>1013</v>
@@ -2224,13 +2227,13 @@
         <v>1006644</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>1248</v>
@@ -2239,13 +2242,13 @@
         <v>1270732</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>2261</v>
@@ -2254,13 +2257,13 @@
         <v>2277377</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2278,13 @@
         <v>1028880</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>1290</v>
@@ -2290,13 +2293,13 @@
         <v>1314265</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>2325</v>
@@ -2305,18 +2308,18 @@
         <v>2343145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2334,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2349,7 +2352,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2364,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2382,13 @@
         <v>1593</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -2400,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2409,13 +2412,13 @@
         <v>3108</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,7 +2439,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -2451,7 +2454,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2460,19 +2463,19 @@
         <v>2822</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>5</v>
@@ -2481,13 +2484,13 @@
         <v>4611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2502,7 +2505,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2511,19 +2514,19 @@
         <v>4611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
@@ -2538,7 +2541,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -2547,13 +2550,13 @@
         <v>15121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2562,13 +2565,13 @@
         <v>16985</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2586,13 @@
         <v>15602</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2598,13 +2601,13 @@
         <v>8100</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -2613,19 +2616,19 @@
         <v>23702</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>28</v>
@@ -2634,13 +2637,13 @@
         <v>28789</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -2649,13 +2652,13 @@
         <v>39446</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -2664,19 +2667,19 @@
         <v>68235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7">
         <v>1594</v>
@@ -2685,13 +2688,13 @@
         <v>1635627</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H20" s="7">
         <v>1492</v>
@@ -2700,13 +2703,13 @@
         <v>1521251</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>3086</v>
@@ -2715,13 +2718,13 @@
         <v>3156878</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2739,13 @@
         <v>1689847</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>1553</v>
@@ -2751,13 +2754,13 @@
         <v>1586493</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>3199</v>
@@ -2766,18 +2769,18 @@
         <v>3276340</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2795,7 +2798,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2840,13 +2843,13 @@
         <v>1457</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2861,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -2870,13 +2873,13 @@
         <v>3039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,7 +2900,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2933,7 +2936,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -2942,13 +2945,13 @@
         <v>3931</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2972,19 +2975,19 @@
         <v>3931</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
         <v>8</v>
@@ -3047,10 +3050,10 @@
         <v>124</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H27" s="7">
         <v>12</v>
@@ -3059,10 +3062,10 @@
         <v>11952</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>128</v>
@@ -3077,16 +3080,16 @@
         <v>129</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7">
         <v>43</v>
@@ -3095,13 +3098,13 @@
         <v>43749</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>24</v>
@@ -3110,13 +3113,13 @@
         <v>25065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -3125,19 +3128,19 @@
         <v>68814</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="7">
         <v>458</v>
@@ -3146,13 +3149,13 @@
         <v>480196</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>405</v>
@@ -3161,13 +3164,13 @@
         <v>426545</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>863</v>
@@ -3176,13 +3179,13 @@
         <v>906741</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3200,13 @@
         <v>551408</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>452</v>
@@ -3212,13 +3215,13 @@
         <v>476412</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>979</v>
@@ -3227,13 +3230,13 @@
         <v>1027820</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3259,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3271,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3286,7 +3289,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3304,13 @@
         <v>3049</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3316,13 +3319,13 @@
         <v>5639</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -3334,10 +3337,10 @@
         <v>152</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,10 +3358,10 @@
         <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
@@ -3367,13 +3370,13 @@
         <v>1991</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="M33" s="7">
         <v>6</v>
@@ -3382,19 +3385,19 @@
         <v>8090</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>10</v>
@@ -3403,13 +3406,13 @@
         <v>9583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3424,7 +3427,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3433,19 +3436,19 @@
         <v>9583</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="7">
         <v>13</v>
@@ -3454,13 +3457,13 @@
         <v>13213</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -3469,13 +3472,13 @@
         <v>35449</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="M35" s="7">
         <v>45</v>
@@ -3484,13 +3487,13 @@
         <v>48662</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3508,13 @@
         <v>31149</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3520,13 +3523,13 @@
         <v>24382</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="M36" s="7">
         <v>54</v>
@@ -3535,19 +3538,19 @@
         <v>55531</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>90</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>84</v>
@@ -3556,13 +3559,13 @@
         <v>84574</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H37" s="7">
         <v>88</v>
@@ -3571,13 +3574,13 @@
         <v>91181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>172</v>
@@ -3586,19 +3589,19 @@
         <v>175755</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7">
         <v>3065</v>
@@ -3607,13 +3610,13 @@
         <v>3122468</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H38" s="7">
         <v>3145</v>
@@ -3622,13 +3625,13 @@
         <v>3218528</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M38" s="7">
         <v>6210</v>
@@ -3637,13 +3640,13 @@
         <v>6340995</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3661,13 @@
         <v>3270135</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>3295</v>
@@ -3673,13 +3676,13 @@
         <v>3377170</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>6503</v>
@@ -3688,18 +3691,18 @@
         <v>6647304</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD7D717-4340-4184-BF81-79BB7C66207D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BABA98-F672-4DA3-8F67-123565C5317B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3735,7 +3738,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3848,7 +3851,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3878,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,7 +3902,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3929,7 +3932,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,7 +3953,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3974,19 +3977,19 @@
         <v>1268</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -4001,7 +4004,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4025,19 +4028,19 @@
         <v>1032</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4046,13 +4049,13 @@
         <v>3021</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -4061,13 +4064,13 @@
         <v>4083</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -4076,13 +4079,13 @@
         <v>7104</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4100,13 @@
         <v>3916</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -4112,7 +4115,7 @@
         <v>3845</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>24</v>
@@ -4127,19 +4130,19 @@
         <v>7760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>6</v>
@@ -4148,13 +4151,13 @@
         <v>5849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -4163,13 +4166,13 @@
         <v>12092</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4178,19 +4181,19 @@
         <v>17941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7">
         <v>894</v>
@@ -4199,13 +4202,13 @@
         <v>959559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H11" s="7">
         <v>1229</v>
@@ -4214,13 +4217,13 @@
         <v>1317776</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M11" s="7">
         <v>2123</v>
@@ -4229,13 +4232,13 @@
         <v>2277335</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4253,13 @@
         <v>974643</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -4265,13 +4268,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>2155</v>
@@ -4280,18 +4283,18 @@
         <v>2312440</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4324,7 +4327,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4339,7 +4342,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,10 +4375,10 @@
         <v>13</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4384,13 +4387,13 @@
         <v>3305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4408,13 @@
         <v>1233</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -4426,7 +4429,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -4441,13 +4444,13 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>6</v>
@@ -4456,13 +4459,13 @@
         <v>5904</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4477,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4486,19 +4489,19 @@
         <v>7891</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>8</v>
@@ -4507,13 +4510,13 @@
         <v>10165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4522,13 +4525,13 @@
         <v>15709</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4540,10 +4543,10 @@
         <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4561,13 @@
         <v>26746</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -4573,13 +4576,13 @@
         <v>20907</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M18" s="7">
         <v>37</v>
@@ -4588,19 +4591,19 @@
         <v>47653</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>33</v>
@@ -4609,13 +4612,13 @@
         <v>36781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4624,13 +4627,13 @@
         <v>21795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>53</v>
@@ -4639,19 +4642,19 @@
         <v>58577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7">
         <v>1786</v>
@@ -4660,13 +4663,13 @@
         <v>1882146</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>1580</v>
@@ -4675,13 +4678,13 @@
         <v>1692905</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>3366</v>
@@ -4690,13 +4693,13 @@
         <v>3575051</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,13 +4714,13 @@
         <v>1962976</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>1635</v>
@@ -4726,13 +4729,13 @@
         <v>1757803</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -4741,18 +4744,18 @@
         <v>3720779</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4770,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4785,7 +4788,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4800,7 +4803,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -4830,7 +4833,7 @@
         <v>2864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
@@ -4845,13 +4848,13 @@
         <v>2864</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,13 +4869,13 @@
         <v>1211</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4887,7 +4890,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -4902,13 +4905,13 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>4</v>
@@ -4917,10 +4920,10 @@
         <v>5589</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>228</v>
@@ -4932,13 +4935,13 @@
         <v>3128</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4947,19 +4950,19 @@
         <v>8717</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
         <v>7</v>
@@ -4968,13 +4971,13 @@
         <v>8462</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -4983,13 +4986,13 @@
         <v>4763</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4998,13 +5001,13 @@
         <v>13225</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5022,13 @@
         <v>16360</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -5034,13 +5037,13 @@
         <v>18044</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M27" s="7">
         <v>28</v>
@@ -5049,19 +5052,19 @@
         <v>34405</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7">
         <v>30</v>
@@ -5070,13 +5073,13 @@
         <v>35165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5085,13 +5088,13 @@
         <v>19065</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="M28" s="7">
         <v>46</v>
@@ -5100,19 +5103,19 @@
         <v>54230</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="7">
         <v>383</v>
@@ -5121,13 +5124,13 @@
         <v>414394</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>372</v>
@@ -5136,13 +5139,13 @@
         <v>410767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>755</v>
@@ -5151,13 +5154,13 @@
         <v>825161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5175,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -5187,13 +5190,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -5202,13 +5205,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5234,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5246,7 +5249,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5261,7 +5264,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,7 +5285,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -5291,13 +5294,13 @@
         <v>6168</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M32" s="7">
         <v>5</v>
@@ -5306,13 +5309,13 @@
         <v>6168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,10 +5333,10 @@
         <v>18</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -5342,13 +5345,13 @@
         <v>1196</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -5360,16 +5363,16 @@
         <v>24</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>11</v>
@@ -5378,13 +5381,13 @@
         <v>12524</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5393,13 +5396,13 @@
         <v>5115</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -5408,19 +5411,19 @@
         <v>17639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="7">
         <v>18</v>
@@ -5429,13 +5432,13 @@
         <v>21648</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -5444,13 +5447,13 @@
         <v>24555</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>71</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="M35" s="7">
         <v>39</v>
@@ -5459,13 +5462,13 @@
         <v>46203</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5483,13 @@
         <v>47022</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
@@ -5495,13 +5498,13 @@
         <v>42796</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -5510,19 +5513,19 @@
         <v>89818</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>267</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>69</v>
@@ -5558,22 +5561,22 @@
         <v>116</v>
       </c>
       <c r="N37" s="7">
-        <v>130748</v>
+        <v>130747</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7">
         <v>3063</v>
@@ -5582,13 +5585,13 @@
         <v>3256098</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H38" s="7">
         <v>3181</v>
@@ -5597,28 +5600,28 @@
         <v>3421448</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M38" s="7">
         <v>6244</v>
       </c>
       <c r="N38" s="7">
-        <v>6677547</v>
+        <v>6677546</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5636,13 @@
         <v>3418800</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>3294</v>
@@ -5648,33 +5651,33 @@
         <v>3554230</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>6495</v>
       </c>
       <c r="N39" s="7">
-        <v>6973031</v>
+        <v>6973030</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5693,7 +5696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6978ECC5-B477-4011-AFAC-09AE067B3C0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66A6AC-8CBF-4D63-B39F-CA1341BFCA4C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5710,7 +5713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5823,7 +5826,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5853,7 +5856,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5904,7 +5907,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5955,13 +5958,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -5976,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5985,13 +5988,13 @@
         <v>884</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6000,19 +6003,19 @@
         <v>884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -6027,7 +6030,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -6051,13 +6054,13 @@
         <v>2757</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,7 +6081,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -6087,13 +6090,13 @@
         <v>4559</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>164</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -6102,19 +6105,19 @@
         <v>6660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>7</v>
@@ -6123,13 +6126,13 @@
         <v>6977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -6138,13 +6141,13 @@
         <v>2105</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -6153,34 +6156,34 @@
         <v>9082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7">
         <v>752</v>
       </c>
       <c r="D11" s="7">
-        <v>744101</v>
+        <v>744100</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H11" s="7">
         <v>880</v>
@@ -6189,13 +6192,13 @@
         <v>980406</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M11" s="7">
         <v>1632</v>
@@ -6204,13 +6207,13 @@
         <v>1724507</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,16 +6225,16 @@
         <v>761</v>
       </c>
       <c r="D12" s="7">
-        <v>753179</v>
+        <v>753178</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>889</v>
@@ -6240,13 +6243,13 @@
         <v>990712</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>1650</v>
@@ -6255,18 +6258,18 @@
         <v>1743891</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6314,7 +6317,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6332,13 @@
         <v>951</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6359,13 +6362,13 @@
         <v>951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6383,13 @@
         <v>4330</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>299</v>
+        <v>154</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -6395,13 +6398,13 @@
         <v>3144</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -6410,19 +6413,19 @@
         <v>7474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -6431,13 +6434,13 @@
         <v>1784</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6446,13 +6449,13 @@
         <v>902</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -6467,13 +6470,13 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>13</v>
@@ -6482,13 +6485,13 @@
         <v>13583</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -6500,10 +6503,10 @@
         <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -6512,13 +6515,13 @@
         <v>27534</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,10 +6536,10 @@
         <v>24155</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>302</v>
@@ -6548,13 +6551,13 @@
         <v>20202</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -6563,19 +6566,19 @@
         <v>44357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>184</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>31</v>
@@ -6584,13 +6587,13 @@
         <v>32882</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -6599,13 +6602,13 @@
         <v>13732</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -6614,19 +6617,19 @@
         <v>46614</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7">
         <v>1879</v>
@@ -6635,13 +6638,13 @@
         <v>1995918</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H20" s="7">
         <v>1859</v>
@@ -6650,13 +6653,13 @@
         <v>1934512</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>191</v>
+        <v>308</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>3738</v>
@@ -6665,13 +6668,13 @@
         <v>3930430</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6686,13 +6689,13 @@
         <v>2073604</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>1906</v>
@@ -6701,13 +6704,13 @@
         <v>1986443</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>3856</v>
@@ -6716,18 +6719,18 @@
         <v>4060047</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6745,7 +6748,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6760,7 +6763,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6796,7 +6799,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6811,7 +6814,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6841,13 +6844,13 @@
         <v>2438</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6862,7 +6865,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -6877,13 +6880,13 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>316</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -6892,13 +6895,13 @@
         <v>2472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6907,13 +6910,13 @@
         <v>2170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -6925,16 +6928,16 @@
         <v>21</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
         <v>18</v>
@@ -6943,13 +6946,13 @@
         <v>20521</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -6958,13 +6961,13 @@
         <v>19082</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>37</v>
@@ -6973,13 +6976,13 @@
         <v>39603</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,13 +6997,13 @@
         <v>30027</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H27" s="7">
         <v>22</v>
@@ -7009,13 +7012,13 @@
         <v>23056</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M27" s="7">
         <v>49</v>
@@ -7024,19 +7027,19 @@
         <v>53083</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7">
         <v>23</v>
@@ -7045,13 +7048,13 @@
         <v>24956</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -7060,13 +7063,13 @@
         <v>18707</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="M28" s="7">
         <v>41</v>
@@ -7075,19 +7078,19 @@
         <v>43664</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="7">
         <v>428</v>
@@ -7096,13 +7099,13 @@
         <v>465509</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H29" s="7">
         <v>465</v>
@@ -7111,13 +7114,13 @@
         <v>486125</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M29" s="7">
         <v>893</v>
@@ -7126,13 +7129,13 @@
         <v>951634</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7150,13 @@
         <v>545923</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -7162,13 +7165,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>1026</v>
@@ -7177,13 +7180,13 @@
         <v>1095063</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,7 +7209,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -7221,7 +7224,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -7236,7 +7239,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7251,13 +7254,13 @@
         <v>951</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7272,7 +7275,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -7281,7 +7284,7 @@
         <v>951</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
@@ -7308,7 +7311,7 @@
         <v>24</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -7317,13 +7320,13 @@
         <v>3144</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="M33" s="7">
         <v>8</v>
@@ -7332,19 +7335,19 @@
         <v>9912</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>3</v>
@@ -7356,10 +7359,10 @@
         <v>152</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7371,10 +7374,10 @@
         <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7383,19 +7386,19 @@
         <v>8212</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="7">
         <v>31</v>
@@ -7404,13 +7407,13 @@
         <v>34104</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H35" s="7">
         <v>34</v>
@@ -7419,13 +7422,13 @@
         <v>35790</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M35" s="7">
         <v>65</v>
@@ -7434,13 +7437,13 @@
         <v>69894</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>353</v>
+        <v>288</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>355</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7458,13 @@
         <v>56283</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -7470,13 +7473,13 @@
         <v>47817</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="M36" s="7">
         <v>94</v>
@@ -7485,19 +7488,19 @@
         <v>104100</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>61</v>
@@ -7506,13 +7509,13 @@
         <v>64816</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>110</v>
+        <v>356</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="H37" s="7">
         <v>33</v>
@@ -7521,13 +7524,13 @@
         <v>34544</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>358</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="M37" s="7">
         <v>94</v>
@@ -7536,19 +7539,19 @@
         <v>99360</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7">
         <v>3059</v>
@@ -7557,13 +7560,13 @@
         <v>3205527</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H38" s="7">
         <v>3204</v>
@@ -7572,13 +7575,13 @@
         <v>3401045</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>63</v>
+        <v>363</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M38" s="7">
         <v>6263</v>
@@ -7587,13 +7590,13 @@
         <v>6606571</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7611,13 @@
         <v>3372705</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>3321</v>
@@ -7623,13 +7626,13 @@
         <v>3526296</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>6532</v>
@@ -7638,18 +7641,18 @@
         <v>6899000</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -7668,7 +7671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D31150C-7050-4B12-AFC9-C2CF64E20301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA2ACDB-98D9-4919-BA80-E2434835FB93}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7685,7 +7688,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7828,7 +7831,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,7 +7861,7 @@
         <v>159</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
@@ -7873,13 +7876,13 @@
         <v>159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7894,13 +7897,13 @@
         <v>1875</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>371</v>
+        <v>69</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -7909,13 +7912,13 @@
         <v>1348</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -7924,19 +7927,19 @@
         <v>3223</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -7960,13 +7963,13 @@
         <v>431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -7975,19 +7978,19 @@
         <v>431</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -7996,13 +7999,13 @@
         <v>2787</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -8011,13 +8014,13 @@
         <v>1206</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -8026,13 +8029,13 @@
         <v>3993</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,13 +8050,13 @@
         <v>488</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -8062,13 +8065,13 @@
         <v>4160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -8077,19 +8080,19 @@
         <v>4648</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -8119,7 +8122,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -8134,13 +8137,13 @@
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C11" s="7">
         <v>685</v>
@@ -8200,13 +8203,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
         <v>1426</v>
@@ -8215,13 +8218,13 @@
         <v>833191</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M12" s="7">
         <v>2117</v>
@@ -8230,18 +8233,18 @@
         <v>1374824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -8289,7 +8292,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8322,13 @@
         <v>3644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>38</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -8340,7 +8343,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8355,13 +8358,13 @@
         <v>1362</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -8370,13 +8373,13 @@
         <v>5732</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -8385,19 +8388,19 @@
         <v>7094</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -8406,13 +8409,13 @@
         <v>1062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -8424,10 +8427,10 @@
         <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -8436,19 +8439,19 @@
         <v>4087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="7">
         <v>7</v>
@@ -8457,13 +8460,13 @@
         <v>6667</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -8472,13 +8475,13 @@
         <v>6878</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>382</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -8487,13 +8490,13 @@
         <v>13545</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8508,13 +8511,13 @@
         <v>23965</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -8523,13 +8526,13 @@
         <v>15313</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -8538,19 +8541,19 @@
         <v>39278</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>30</v>
@@ -8559,13 +8562,13 @@
         <v>37121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -8574,13 +8577,13 @@
         <v>11900</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -8589,19 +8592,19 @@
         <v>49020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C20" s="7">
         <v>1932</v>
@@ -8610,7 +8613,7 @@
         <v>2091845</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>386</v>
@@ -8628,10 +8631,10 @@
         <v>374</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>4787</v>
@@ -8640,13 +8643,13 @@
         <v>4294714</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8661,13 +8664,13 @@
         <v>2162022</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>2920</v>
@@ -8676,13 +8679,13 @@
         <v>2249361</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>4912</v>
@@ -8691,18 +8694,18 @@
         <v>4411383</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8858,7 +8861,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -8888,7 +8891,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8897,19 +8900,19 @@
         <v>735</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="7">
         <v>9</v>
@@ -8918,13 +8921,13 @@
         <v>5118</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>371</v>
+        <v>69</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>81</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>19</v>
@@ -8933,13 +8936,13 @@
         <v>13524</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -8948,13 +8951,13 @@
         <v>18642</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8969,13 +8972,13 @@
         <v>26878</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H27" s="7">
         <v>33</v>
@@ -8984,13 +8987,13 @@
         <v>25356</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M27" s="7">
         <v>63</v>
@@ -8999,19 +9002,19 @@
         <v>52234</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7">
         <v>24</v>
@@ -9020,13 +9023,13 @@
         <v>18813</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>215</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -9035,13 +9038,13 @@
         <v>22590</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M28" s="7">
         <v>59</v>
@@ -9050,19 +9053,19 @@
         <v>41404</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29" s="7">
         <v>618</v>
@@ -9071,13 +9074,13 @@
         <v>622229</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H29" s="7">
         <v>916</v>
@@ -9086,13 +9089,13 @@
         <v>651681</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M29" s="7">
         <v>1534</v>
@@ -9101,13 +9104,13 @@
         <v>1273911</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9122,13 +9125,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>1004</v>
@@ -9137,13 +9140,13 @@
         <v>713886</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M30" s="7">
         <v>1685</v>
@@ -9152,13 +9155,13 @@
         <v>1386926</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9181,7 +9184,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -9196,7 +9199,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -9211,7 +9214,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9232,7 +9235,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -9247,7 +9250,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -9256,13 +9259,13 @@
         <v>3803</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9280,10 +9283,10 @@
         <v>22</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -9295,10 +9298,10 @@
         <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M33" s="7">
         <v>13</v>
@@ -9307,19 +9310,19 @@
         <v>10317</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
@@ -9328,7 +9331,7 @@
         <v>1062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
@@ -9346,10 +9349,10 @@
         <v>18</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9361,7 +9364,7 @@
         <v>24</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>14</v>
@@ -9370,7 +9373,7 @@
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="7">
         <v>19</v>
@@ -9379,13 +9382,13 @@
         <v>14572</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -9394,13 +9397,13 @@
         <v>21608</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>199</v>
+        <v>369</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M35" s="7">
         <v>52</v>
@@ -9409,13 +9412,13 @@
         <v>36180</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9430,13 +9433,13 @@
         <v>51332</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>419</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H36" s="7">
         <v>60</v>
@@ -9445,13 +9448,13 @@
         <v>44829</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>53</v>
+        <v>185</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>111</v>
@@ -9460,10 +9463,10 @@
         <v>96161</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>287</v>
+        <v>86</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>420</v>
@@ -9472,7 +9475,7 @@
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>54</v>
@@ -9481,13 +9484,13 @@
         <v>55934</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H37" s="7">
         <v>56</v>
@@ -9496,13 +9499,13 @@
         <v>35560</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M37" s="7">
         <v>110</v>
@@ -9511,19 +9514,19 @@
         <v>91494</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>423</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C38" s="7">
         <v>3235</v>
@@ -9532,7 +9535,7 @@
         <v>3250557</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>424</v>
@@ -9568,7 +9571,7 @@
         <v>430</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>367</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9583,13 +9586,13 @@
         <v>3376694</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>5350</v>
@@ -9598,13 +9601,13 @@
         <v>3796438</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>8714</v>
@@ -9613,18 +9616,18 @@
         <v>7173133</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
